--- a/data/costs.xlsx
+++ b/data/costs.xlsx
@@ -449,21 +449,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>food</t>
+          <t>bla</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>food</t>
+          <t>bla</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>78.56</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
